--- a/Code/Results/Cases/Case_3_238/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_238/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.103672562805684</v>
+        <v>2.337264536586076</v>
       </c>
       <c r="C2">
-        <v>0.8578613682279865</v>
+        <v>0.2495539691077795</v>
       </c>
       <c r="D2">
-        <v>0.06167497354867635</v>
+        <v>0.1111683606676266</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.575395318380373</v>
+        <v>2.364975423259352</v>
       </c>
       <c r="G2">
-        <v>0.0007940624970794903</v>
+        <v>0.002527410921510674</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1361167992480077</v>
+        <v>0.2117761014173212</v>
       </c>
       <c r="M2">
-        <v>0.6056660692233606</v>
+        <v>0.4293080002094669</v>
       </c>
       <c r="N2">
-        <v>1.354624930242807</v>
+        <v>2.256116028307801</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.558238506848227</v>
+        <v>2.210620735654459</v>
       </c>
       <c r="C3">
-        <v>0.74004095466438</v>
+        <v>0.2170596959110185</v>
       </c>
       <c r="D3">
-        <v>0.06201453078200814</v>
+        <v>0.1116371452467853</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.317386436352862</v>
+        <v>2.313137542642536</v>
       </c>
       <c r="G3">
-        <v>0.0008038923167624521</v>
+        <v>0.002533449005866058</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1256535256829849</v>
+        <v>0.2103934094145288</v>
       </c>
       <c r="M3">
-        <v>0.5290769309135541</v>
+        <v>0.4124278570964819</v>
       </c>
       <c r="N3">
-        <v>1.378705084316167</v>
+        <v>2.266791252660397</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.230266327438756</v>
+        <v>2.134362324837184</v>
       </c>
       <c r="C4">
-        <v>0.6688566388054653</v>
+        <v>0.1970960426278339</v>
       </c>
       <c r="D4">
-        <v>0.06235763384982107</v>
+        <v>0.1119670057879461</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.164879804992012</v>
+        <v>2.282753959586074</v>
       </c>
       <c r="G4">
-        <v>0.0008100754246427169</v>
+        <v>0.002537349794861247</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1194527163179799</v>
+        <v>0.2096418277288876</v>
       </c>
       <c r="M4">
-        <v>0.4830967670313342</v>
+        <v>0.4023346689815099</v>
       </c>
       <c r="N4">
-        <v>1.395655959744289</v>
+        <v>2.274030355306806</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.098125732723702</v>
+        <v>2.103661279415689</v>
       </c>
       <c r="C5">
-        <v>0.6400886208226382</v>
+        <v>0.1889568277343585</v>
       </c>
       <c r="D5">
-        <v>0.06252863757831051</v>
+        <v>0.1121119486657634</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.104057412805489</v>
+        <v>2.270733354847053</v>
       </c>
       <c r="G5">
-        <v>0.0008126344736156363</v>
+        <v>0.002538988200766456</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1169772518071639</v>
+        <v>0.2093600275653102</v>
       </c>
       <c r="M5">
-        <v>0.4645899248104968</v>
+        <v>0.3982894909721466</v>
       </c>
       <c r="N5">
-        <v>1.403072897633507</v>
+        <v>2.277151763214093</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.076268784172441</v>
+        <v>2.098585959099069</v>
       </c>
       <c r="C6">
-        <v>0.6353248212647884</v>
+        <v>0.1876050596591199</v>
       </c>
       <c r="D6">
-        <v>0.06255884354753505</v>
+        <v>0.1121366505069794</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.094033513193352</v>
+        <v>2.268759072856014</v>
       </c>
       <c r="G6">
-        <v>0.0008130618431873018</v>
+        <v>0.00253926320912452</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1165691748837432</v>
+        <v>0.2093147126921764</v>
       </c>
       <c r="M6">
-        <v>0.4615299011677294</v>
+        <v>0.3976218821530466</v>
       </c>
       <c r="N6">
-        <v>1.404334268935443</v>
+        <v>2.277680403252774</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.228478405989677</v>
+        <v>2.133946765415033</v>
       </c>
       <c r="C7">
-        <v>0.6684677546373337</v>
+        <v>0.1969862910749782</v>
       </c>
       <c r="D7">
-        <v>0.06235981711206406</v>
+        <v>0.1119689179941652</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.164054369134348</v>
+        <v>2.282590387201267</v>
       </c>
       <c r="G7">
-        <v>0.0008101097746177333</v>
+        <v>0.002537371693353791</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1194191292375066</v>
+        <v>0.2096379281917606</v>
       </c>
       <c r="M7">
-        <v>0.4828462850557784</v>
+        <v>0.4022798399018512</v>
       </c>
       <c r="N7">
-        <v>1.395753969082932</v>
+        <v>2.274071758569107</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.914023128563599</v>
+        <v>2.293284479049134</v>
       </c>
       <c r="C8">
-        <v>0.8169642377627611</v>
+        <v>0.238351926834099</v>
       </c>
       <c r="D8">
-        <v>0.06176242044149305</v>
+        <v>0.1113212477112242</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.485104821283088</v>
+        <v>2.346800304825038</v>
       </c>
       <c r="G8">
-        <v>0.0007974226302408634</v>
+        <v>0.002529452822260357</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1324595900759249</v>
+        <v>0.2112791237254399</v>
       </c>
       <c r="M8">
-        <v>0.5790204814428677</v>
+        <v>0.4234312083639651</v>
       </c>
       <c r="N8">
-        <v>1.362456018496744</v>
+        <v>2.259654359686465</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.325079876468465</v>
+        <v>2.617798737017608</v>
       </c>
       <c r="C9">
-        <v>1.119958681439556</v>
+        <v>0.3194160369768895</v>
       </c>
       <c r="D9">
-        <v>0.06179582861894062</v>
+        <v>0.1103867210829677</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.169782225822473</v>
+        <v>2.48430136029657</v>
       </c>
       <c r="G9">
-        <v>0.000773598939330726</v>
+        <v>0.002515450333093741</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1600503585149013</v>
+        <v>0.2152714883575868</v>
       </c>
       <c r="M9">
-        <v>0.7775687553601571</v>
+        <v>0.4670797934956852</v>
       </c>
       <c r="N9">
-        <v>1.31612693158678</v>
+        <v>2.236844790518461</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.421202263731857</v>
+        <v>2.863791852350573</v>
       </c>
       <c r="C10">
-        <v>1.353945053584766</v>
+        <v>0.3790046136435876</v>
       </c>
       <c r="D10">
-        <v>0.062776500522709</v>
+        <v>0.1099076773497885</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.719471775356453</v>
+        <v>2.592566302782245</v>
       </c>
       <c r="G10">
-        <v>0.0007565567579290099</v>
+        <v>0.002506082016836031</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1819367228653235</v>
+        <v>0.2186788516577991</v>
       </c>
       <c r="M10">
-        <v>0.9321413628279984</v>
+        <v>0.5005013663077449</v>
       </c>
       <c r="N10">
-        <v>1.296499040998341</v>
+        <v>2.223461598558401</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.937740849707211</v>
+        <v>2.977395882083044</v>
       </c>
       <c r="C11">
-        <v>1.463984506695226</v>
+        <v>0.4061338973652937</v>
       </c>
       <c r="D11">
-        <v>0.06349062929754012</v>
+        <v>0.1097354805116737</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.983146797758877</v>
+        <v>2.643431837776205</v>
       </c>
       <c r="G11">
-        <v>0.0007488557944919363</v>
+        <v>0.002502017347139329</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1923448923018327</v>
+        <v>0.2203324825262172</v>
       </c>
       <c r="M11">
-        <v>1.005046792744153</v>
+        <v>0.5160062576869393</v>
       </c>
       <c r="N11">
-        <v>1.291459279596012</v>
+        <v>2.218115915600308</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.136408742155652</v>
+        <v>3.020662971093657</v>
       </c>
       <c r="C12">
-        <v>1.506283072706594</v>
+        <v>0.4164112883722169</v>
       </c>
       <c r="D12">
-        <v>0.06380573022966018</v>
+        <v>0.1096769042582579</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.085297068517832</v>
+        <v>2.66292862961518</v>
       </c>
       <c r="G12">
-        <v>0.0007459423194241345</v>
+        <v>0.002500506310045789</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1963610188826479</v>
+        <v>0.220973604496038</v>
       </c>
       <c r="M12">
-        <v>1.033095414671308</v>
+        <v>0.5219213573524328</v>
       </c>
       <c r="N12">
-        <v>1.290186196296972</v>
+        <v>2.216199226934052</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.093477036451816</v>
+        <v>3.011333561091362</v>
       </c>
       <c r="C13">
-        <v>1.497143365550357</v>
+        <v>0.4141976700271357</v>
       </c>
       <c r="D13">
-        <v>0.06373577119736495</v>
+        <v>0.1096892238846365</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.063188714049971</v>
+        <v>2.658719143931222</v>
       </c>
       <c r="G13">
-        <v>0.0007465697507346986</v>
+        <v>0.002500830488996464</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1954925769364024</v>
+        <v>0.2208348629984727</v>
       </c>
       <c r="M13">
-        <v>1.027033824518135</v>
+        <v>0.5206454830226406</v>
       </c>
       <c r="N13">
-        <v>1.290430773832881</v>
+        <v>2.216607220682306</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.954020839385691</v>
+        <v>2.980950508644696</v>
       </c>
       <c r="C14">
-        <v>1.467451122911882</v>
+        <v>0.4069793365193277</v>
       </c>
       <c r="D14">
-        <v>0.06351561844569176</v>
+        <v>0.1097305281886918</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.99150245420995</v>
+        <v>2.645031122010039</v>
       </c>
       <c r="G14">
-        <v>0.0007486160763467466</v>
+        <v>0.002501892469731264</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1926737415590623</v>
+        <v>0.2203849286644726</v>
       </c>
       <c r="M14">
-        <v>1.007345102057727</v>
+        <v>0.5164920175953256</v>
       </c>
       <c r="N14">
-        <v>1.291341328397507</v>
+        <v>2.217956066989103</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.869015065712517</v>
+        <v>2.962372366152636</v>
       </c>
       <c r="C15">
-        <v>1.449349312005154</v>
+        <v>0.402558463419382</v>
       </c>
       <c r="D15">
-        <v>0.0633867871691578</v>
+        <v>0.1097566934965357</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.947903516354927</v>
+        <v>2.636677517815968</v>
       </c>
       <c r="G15">
-        <v>0.0007498697108426471</v>
+        <v>0.002502546626250498</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1909571768855258</v>
+        <v>0.2201112758492911</v>
       </c>
       <c r="M15">
-        <v>0.9953448284888822</v>
+        <v>0.5139536079996461</v>
       </c>
       <c r="N15">
-        <v>1.291984281807714</v>
+        <v>2.218796313122013</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.387845831955417</v>
+        <v>2.85640205052249</v>
       </c>
       <c r="C16">
-        <v>1.346835249715525</v>
+        <v>0.3772321763704554</v>
       </c>
       <c r="D16">
-        <v>0.06273572431581442</v>
+        <v>0.1099198556440513</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.702542218681174</v>
+        <v>2.589274865827605</v>
       </c>
       <c r="G16">
-        <v>0.0007570606864806823</v>
+        <v>0.002506351602704848</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1812664238995936</v>
+        <v>0.2185728702729932</v>
       </c>
       <c r="M16">
-        <v>0.9274345523482594</v>
+        <v>0.4994941823042325</v>
       </c>
       <c r="N16">
-        <v>1.296912894113959</v>
+        <v>2.223825962797264</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.097576495737087</v>
+        <v>2.791830476117013</v>
       </c>
       <c r="C17">
-        <v>1.284941597563773</v>
+        <v>0.3617016518317087</v>
       </c>
       <c r="D17">
-        <v>0.0624090065453089</v>
+        <v>0.1100317005664593</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.555737314966109</v>
+        <v>2.560610592119502</v>
       </c>
       <c r="G17">
-        <v>0.000761482205781421</v>
+        <v>0.002508736176679408</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1754437500449413</v>
+        <v>0.2176556644031251</v>
       </c>
       <c r="M17">
-        <v>0.8864826057515884</v>
+        <v>0.4907012419800196</v>
       </c>
       <c r="N17">
-        <v>1.30098299727824</v>
+        <v>2.227102236485351</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.932273249543698</v>
+        <v>2.754850481854305</v>
       </c>
       <c r="C18">
-        <v>1.24967300072791</v>
+        <v>0.3527709320284202</v>
       </c>
       <c r="D18">
-        <v>0.06224589036824568</v>
+        <v>0.1101003310140882</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.472557373110959</v>
+        <v>2.544275523989853</v>
       </c>
       <c r="G18">
-        <v>0.0007640305251018675</v>
+        <v>0.002510126275280136</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1721365796282086</v>
+        <v>0.2171378616897499</v>
       </c>
       <c r="M18">
-        <v>0.8631672033042648</v>
+        <v>0.4856721049678754</v>
       </c>
       <c r="N18">
-        <v>1.303684865146778</v>
+        <v>2.229056488977236</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.876574397464481</v>
+        <v>2.742357053039086</v>
       </c>
       <c r="C19">
-        <v>1.237785394701916</v>
+        <v>0.3497474636484412</v>
       </c>
       <c r="D19">
-        <v>0.06219475186061629</v>
+        <v>0.1101243049756278</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.444600573130117</v>
+        <v>2.538770747472313</v>
       </c>
       <c r="G19">
-        <v>0.0007648943637064712</v>
+        <v>0.002510600130657382</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1710237452393955</v>
+        <v>0.2169642162548371</v>
       </c>
       <c r="M19">
-        <v>0.855312148506826</v>
+        <v>0.4839741787815797</v>
       </c>
       <c r="N19">
-        <v>1.30465952025915</v>
+        <v>2.229730132360274</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.128301871365693</v>
+        <v>2.798687662004738</v>
       </c>
       <c r="C20">
-        <v>1.291495274322301</v>
+        <v>0.3633546861467494</v>
       </c>
       <c r="D20">
-        <v>0.06244117806568283</v>
+        <v>0.1100193490266079</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.571232391032737</v>
+        <v>2.563646215199441</v>
       </c>
       <c r="G20">
-        <v>0.0007610110234218269</v>
+        <v>0.002508480415685964</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1760591829932778</v>
+        <v>0.2177522932526728</v>
       </c>
       <c r="M20">
-        <v>0.8908168038179056</v>
+        <v>0.4916343305038424</v>
       </c>
       <c r="N20">
-        <v>1.300511867722648</v>
+        <v>2.226746238667346</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.994894994100321</v>
+        <v>2.989867999242847</v>
       </c>
       <c r="C21">
-        <v>1.476154400717348</v>
+        <v>0.4090994166933797</v>
       </c>
       <c r="D21">
-        <v>0.06357901584608072</v>
+        <v>0.1097182156985355</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.012492947954712</v>
+        <v>2.649045221924013</v>
       </c>
       <c r="G21">
-        <v>0.0007480149885803478</v>
+        <v>0.00250157977700042</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1934995871757295</v>
+        <v>0.2205166799021825</v>
       </c>
       <c r="M21">
-        <v>1.01311559086885</v>
+        <v>0.5177108007959959</v>
       </c>
       <c r="N21">
-        <v>1.291055964546445</v>
+        <v>2.217556950917924</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.579421821273627</v>
+        <v>3.116260761721492</v>
       </c>
       <c r="C22">
-        <v>1.600572207843868</v>
+        <v>0.4390207027225301</v>
       </c>
       <c r="D22">
-        <v>0.06458674341777026</v>
+        <v>0.109560084719007</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.314503266683545</v>
+        <v>2.706230208981879</v>
       </c>
       <c r="G22">
-        <v>0.0007395343899749469</v>
+        <v>0.002497233902031499</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2053394049926567</v>
+        <v>0.2224103922807359</v>
       </c>
       <c r="M22">
-        <v>1.095654936862601</v>
+        <v>0.5350083953751721</v>
       </c>
       <c r="N22">
-        <v>1.288624146558305</v>
+        <v>2.212178830116486</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.265603910136747</v>
+        <v>3.048669247051237</v>
       </c>
       <c r="C23">
-        <v>1.533784617871277</v>
+        <v>0.4230485978395109</v>
       </c>
       <c r="D23">
-        <v>0.06402241297363531</v>
+        <v>0.1096409244295486</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.15193971176123</v>
+        <v>2.675583033387397</v>
       </c>
       <c r="G23">
-        <v>0.0007440612071030877</v>
+        <v>0.002499538417779837</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1989762484198749</v>
+        <v>0.2213917092226794</v>
       </c>
       <c r="M23">
-        <v>1.051337745968333</v>
+        <v>0.5257528610446371</v>
       </c>
       <c r="N23">
-        <v>1.28955058012383</v>
+        <v>2.214991524128408</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.114406054759002</v>
+        <v>2.795587082890847</v>
       </c>
       <c r="C24">
-        <v>1.288531384428836</v>
+        <v>0.3626073556777669</v>
       </c>
       <c r="D24">
-        <v>0.06242655677929321</v>
+        <v>0.1100249196773504</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.564223291897292</v>
+        <v>2.562273360431163</v>
       </c>
       <c r="G24">
-        <v>0.0007612240247747426</v>
+        <v>0.002508595985366978</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1757808207574811</v>
+        <v>0.2177085777268672</v>
       </c>
       <c r="M24">
-        <v>0.8888566064377272</v>
+        <v>0.4912124000998688</v>
       </c>
       <c r="N24">
-        <v>1.300723743723125</v>
+        <v>2.226906965195454</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.934423061355233</v>
+        <v>2.528695678322151</v>
       </c>
       <c r="C25">
-        <v>1.036330573971583</v>
+        <v>0.2974852850019829</v>
       </c>
       <c r="D25">
-        <v>0.06163690499747787</v>
+        <v>0.1106033064550616</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.977415521126346</v>
+        <v>2.44584491211242</v>
       </c>
       <c r="G25">
-        <v>0.0007799483040537126</v>
+        <v>0.002519076128250396</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1523333321258278</v>
+        <v>0.2141083523458533</v>
       </c>
       <c r="M25">
-        <v>0.722539663951423</v>
+        <v>0.4550362725868595</v>
       </c>
       <c r="N25">
-        <v>1.326358964092151</v>
+        <v>2.242425966404539</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_238/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_238/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.337264536586076</v>
+        <v>4.103672562805571</v>
       </c>
       <c r="C2">
-        <v>0.2495539691077795</v>
+        <v>0.8578613682279581</v>
       </c>
       <c r="D2">
-        <v>0.1111683606676266</v>
+        <v>0.06167497354878293</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.364975423259352</v>
+        <v>2.575395318380401</v>
       </c>
       <c r="G2">
-        <v>0.002527410921510674</v>
+        <v>0.0007940624971952765</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2117761014173212</v>
+        <v>0.1361167992480006</v>
       </c>
       <c r="M2">
-        <v>0.4293080002094669</v>
+        <v>0.6056660692233535</v>
       </c>
       <c r="N2">
-        <v>2.256116028307801</v>
+        <v>1.354624930242807</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.210620735654459</v>
+        <v>3.558238506848284</v>
       </c>
       <c r="C3">
-        <v>0.2170596959110185</v>
+        <v>0.7400409546645221</v>
       </c>
       <c r="D3">
-        <v>0.1116371452467853</v>
+        <v>0.06201453078209695</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.313137542642536</v>
+        <v>2.31738643635282</v>
       </c>
       <c r="G3">
-        <v>0.002533449005866058</v>
+        <v>0.0008038923168755024</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2103934094145288</v>
+        <v>0.1256535256829494</v>
       </c>
       <c r="M3">
-        <v>0.4124278570964819</v>
+        <v>0.5290769309135612</v>
       </c>
       <c r="N3">
-        <v>2.266791252660397</v>
+        <v>1.378705084316181</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.134362324837184</v>
+        <v>3.230266327438812</v>
       </c>
       <c r="C4">
-        <v>0.1970960426278339</v>
+        <v>0.6688566388053232</v>
       </c>
       <c r="D4">
-        <v>0.1119670057879461</v>
+        <v>0.06235763384994186</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.282753959586074</v>
+        <v>2.164879804991998</v>
       </c>
       <c r="G4">
-        <v>0.002537349794861247</v>
+        <v>0.000810075424703565</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2096418277288876</v>
+        <v>0.1194527163180652</v>
       </c>
       <c r="M4">
-        <v>0.4023346689815099</v>
+        <v>0.48309676703132</v>
       </c>
       <c r="N4">
-        <v>2.274030355306806</v>
+        <v>1.395655959744261</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.103661279415689</v>
+        <v>3.098125732723759</v>
       </c>
       <c r="C5">
-        <v>0.1889568277343585</v>
+        <v>0.6400886208230645</v>
       </c>
       <c r="D5">
-        <v>0.1121119486657634</v>
+        <v>0.06252863757840643</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.270733354847053</v>
+        <v>2.104057412805489</v>
       </c>
       <c r="G5">
-        <v>0.002538988200766456</v>
+        <v>0.000812634473735472</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2093600275653102</v>
+        <v>0.1169772518072492</v>
       </c>
       <c r="M5">
-        <v>0.3982894909721466</v>
+        <v>0.4645899248105181</v>
       </c>
       <c r="N5">
-        <v>2.277151763214093</v>
+        <v>1.403072897633493</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.098585959099069</v>
+        <v>3.076268784172385</v>
       </c>
       <c r="C6">
-        <v>0.1876050596591199</v>
+        <v>0.63532482126476</v>
       </c>
       <c r="D6">
-        <v>0.1121366505069794</v>
+        <v>0.06255884354741426</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.268759072856014</v>
+        <v>2.094033513193352</v>
       </c>
       <c r="G6">
-        <v>0.00253926320912452</v>
+        <v>0.0008130618431275716</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2093147126921764</v>
+        <v>0.116569174883665</v>
       </c>
       <c r="M6">
-        <v>0.3976218821530466</v>
+        <v>0.4615299011677365</v>
       </c>
       <c r="N6">
-        <v>2.277680403252774</v>
+        <v>1.404334268935429</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.133946765415033</v>
+        <v>3.22847840598979</v>
       </c>
       <c r="C7">
-        <v>0.1969862910749782</v>
+        <v>0.6684677546375326</v>
       </c>
       <c r="D7">
-        <v>0.1119689179941652</v>
+        <v>0.06235981711195038</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.282590387201267</v>
+        <v>2.164054369134334</v>
       </c>
       <c r="G7">
-        <v>0.002537371693353791</v>
+        <v>0.0008101097746270592</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2096379281917606</v>
+        <v>0.119419129237464</v>
       </c>
       <c r="M7">
-        <v>0.4022798399018512</v>
+        <v>0.4828462850557784</v>
       </c>
       <c r="N7">
-        <v>2.274071758569107</v>
+        <v>1.395753969083017</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.293284479049134</v>
+        <v>3.91402312856377</v>
       </c>
       <c r="C8">
-        <v>0.238351926834099</v>
+        <v>0.8169642377630453</v>
       </c>
       <c r="D8">
-        <v>0.1113212477112242</v>
+        <v>0.06176242044147529</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.346800304825038</v>
+        <v>2.485104821283045</v>
       </c>
       <c r="G8">
-        <v>0.002529452822260357</v>
+        <v>0.0007974226302371373</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2112791237254399</v>
+        <v>0.1324595900759888</v>
       </c>
       <c r="M8">
-        <v>0.4234312083639651</v>
+        <v>0.5790204814428748</v>
       </c>
       <c r="N8">
-        <v>2.259654359686465</v>
+        <v>1.362456018496772</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.617798737017608</v>
+        <v>5.325079876468465</v>
       </c>
       <c r="C9">
-        <v>0.3194160369768895</v>
+        <v>1.119958681439556</v>
       </c>
       <c r="D9">
-        <v>0.1103867210829677</v>
+        <v>0.06179582861881983</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.48430136029657</v>
+        <v>3.169782225822473</v>
       </c>
       <c r="G9">
-        <v>0.002515450333093741</v>
+        <v>0.0007735989392650911</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2152714883575868</v>
+        <v>0.1600503585149013</v>
       </c>
       <c r="M9">
-        <v>0.4670797934956852</v>
+        <v>0.7775687553601642</v>
       </c>
       <c r="N9">
-        <v>2.236844790518461</v>
+        <v>1.316126931586794</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.863791852350573</v>
+        <v>6.421202263731743</v>
       </c>
       <c r="C10">
-        <v>0.3790046136435876</v>
+        <v>1.353945053584994</v>
       </c>
       <c r="D10">
-        <v>0.1099076773497885</v>
+        <v>0.06277650052293637</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.592566302782245</v>
+        <v>3.719471775356453</v>
       </c>
       <c r="G10">
-        <v>0.002506082016836031</v>
+        <v>0.0007565567580573575</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2186788516577991</v>
+        <v>0.1819367228653235</v>
       </c>
       <c r="M10">
-        <v>0.5005013663077449</v>
+        <v>0.9321413628279913</v>
       </c>
       <c r="N10">
-        <v>2.223461598558401</v>
+        <v>1.296499040998341</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.977395882083044</v>
+        <v>6.937740849707211</v>
       </c>
       <c r="C11">
-        <v>0.4061338973652937</v>
+        <v>1.463984506695283</v>
       </c>
       <c r="D11">
-        <v>0.1097354805116737</v>
+        <v>0.06349062929768223</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.643431837776205</v>
+        <v>3.983146797758849</v>
       </c>
       <c r="G11">
-        <v>0.002502017347139329</v>
+        <v>0.0007488557945103451</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2203324825262172</v>
+        <v>0.1923448923018114</v>
       </c>
       <c r="M11">
-        <v>0.5160062576869393</v>
+        <v>1.005046792744139</v>
       </c>
       <c r="N11">
-        <v>2.218115915600308</v>
+        <v>1.291459279596083</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.020662971093657</v>
+        <v>7.136408742155538</v>
       </c>
       <c r="C12">
-        <v>0.4164112883722169</v>
+        <v>1.506283072706083</v>
       </c>
       <c r="D12">
-        <v>0.1096769042582579</v>
+        <v>0.06380573022985203</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.66292862961518</v>
+        <v>4.085297068517889</v>
       </c>
       <c r="G12">
-        <v>0.002500506310045789</v>
+        <v>0.0007459423193649185</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.220973604496038</v>
+        <v>0.1963610188828113</v>
       </c>
       <c r="M12">
-        <v>0.5219213573524328</v>
+        <v>1.033095414671322</v>
       </c>
       <c r="N12">
-        <v>2.216199226934052</v>
+        <v>1.290186196297014</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.011333561091362</v>
+        <v>7.093477036451532</v>
       </c>
       <c r="C13">
-        <v>0.4141976700271357</v>
+        <v>1.497143365550926</v>
       </c>
       <c r="D13">
-        <v>0.1096892238846365</v>
+        <v>0.06373577119751417</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.658719143931222</v>
+        <v>4.063188714049971</v>
       </c>
       <c r="G13">
-        <v>0.002500830488996464</v>
+        <v>0.0007465697508484137</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2208348629984727</v>
+        <v>0.1954925769363882</v>
       </c>
       <c r="M13">
-        <v>0.5206454830226406</v>
+        <v>1.027033824518135</v>
       </c>
       <c r="N13">
-        <v>2.216607220682306</v>
+        <v>1.290430773832909</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.980950508644696</v>
+        <v>6.954020839385748</v>
       </c>
       <c r="C14">
-        <v>0.4069793365193277</v>
+        <v>1.467451122911598</v>
       </c>
       <c r="D14">
-        <v>0.1097305281886918</v>
+        <v>0.06351561844567755</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.645031122010039</v>
+        <v>3.991502454209979</v>
       </c>
       <c r="G14">
-        <v>0.002501892469731264</v>
+        <v>0.000748616076400272</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2203849286644726</v>
+        <v>0.1926737415590338</v>
       </c>
       <c r="M14">
-        <v>0.5164920175953256</v>
+        <v>1.007345102057748</v>
       </c>
       <c r="N14">
-        <v>2.217956066989103</v>
+        <v>1.291341328397493</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.962372366152636</v>
+        <v>6.869015065712802</v>
       </c>
       <c r="C15">
-        <v>0.402558463419382</v>
+        <v>1.44934931200487</v>
       </c>
       <c r="D15">
-        <v>0.1097566934965357</v>
+        <v>0.06338678716892332</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.636677517815968</v>
+        <v>3.947903516354927</v>
       </c>
       <c r="G15">
-        <v>0.002502546626250498</v>
+        <v>0.0007498697109718937</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2201112758492911</v>
+        <v>0.1909571768854761</v>
       </c>
       <c r="M15">
-        <v>0.5139536079996461</v>
+        <v>0.9953448284888538</v>
       </c>
       <c r="N15">
-        <v>2.218796313122013</v>
+        <v>1.291984281807729</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.85640205052249</v>
+        <v>6.387845831955303</v>
       </c>
       <c r="C16">
-        <v>0.3772321763704554</v>
+        <v>1.346835249715241</v>
       </c>
       <c r="D16">
-        <v>0.1099198556440513</v>
+        <v>0.06273572431595653</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.589274865827605</v>
+        <v>3.702542218681288</v>
       </c>
       <c r="G16">
-        <v>0.002506351602704848</v>
+        <v>0.0007570606864802383</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2185728702729932</v>
+        <v>0.1812664238996788</v>
       </c>
       <c r="M16">
-        <v>0.4994941823042325</v>
+        <v>0.9274345523482737</v>
       </c>
       <c r="N16">
-        <v>2.223825962797264</v>
+        <v>1.296912894114044</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.791830476117013</v>
+        <v>6.097576495737201</v>
       </c>
       <c r="C17">
-        <v>0.3617016518317087</v>
+        <v>1.284941597564227</v>
       </c>
       <c r="D17">
-        <v>0.1100317005664593</v>
+        <v>0.06240900654556469</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.560610592119502</v>
+        <v>3.555737314966137</v>
       </c>
       <c r="G17">
-        <v>0.002508736176679408</v>
+        <v>0.0007614822057244995</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2176556644031251</v>
+        <v>0.1754437500448773</v>
       </c>
       <c r="M17">
-        <v>0.4907012419800196</v>
+        <v>0.8864826057515813</v>
       </c>
       <c r="N17">
-        <v>2.227102236485351</v>
+        <v>1.300982997278226</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.754850481854305</v>
+        <v>5.932273249543584</v>
       </c>
       <c r="C18">
-        <v>0.3527709320284202</v>
+        <v>1.249673000728137</v>
       </c>
       <c r="D18">
-        <v>0.1101003310140882</v>
+        <v>0.0622458903682741</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.544275523989853</v>
+        <v>3.472557373110959</v>
       </c>
       <c r="G18">
-        <v>0.002510126275280136</v>
+        <v>0.00076403052515826</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2171378616897499</v>
+        <v>0.1721365796282157</v>
       </c>
       <c r="M18">
-        <v>0.4856721049678754</v>
+        <v>0.8631672033042506</v>
       </c>
       <c r="N18">
-        <v>2.229056488977236</v>
+        <v>1.303684865146721</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.742357053039086</v>
+        <v>5.876574397464481</v>
       </c>
       <c r="C19">
-        <v>0.3497474636484412</v>
+        <v>1.237785394701916</v>
       </c>
       <c r="D19">
-        <v>0.1101243049756278</v>
+        <v>0.06219475186085077</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.538770747472313</v>
+        <v>3.444600573130117</v>
       </c>
       <c r="G19">
-        <v>0.002510600130657382</v>
+        <v>0.0007648943637042244</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2169642162548371</v>
+        <v>0.1710237452393528</v>
       </c>
       <c r="M19">
-        <v>0.4839741787815797</v>
+        <v>0.855312148506826</v>
       </c>
       <c r="N19">
-        <v>2.229730132360274</v>
+        <v>1.304659520259136</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.798687662004738</v>
+        <v>6.128301871365807</v>
       </c>
       <c r="C20">
-        <v>0.3633546861467494</v>
+        <v>1.291495274322529</v>
       </c>
       <c r="D20">
-        <v>0.1100193490266079</v>
+        <v>0.06244117806582494</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.563646215199441</v>
+        <v>3.571232391032709</v>
       </c>
       <c r="G20">
-        <v>0.002508480415685964</v>
+        <v>0.000761011023357656</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2177522932526728</v>
+        <v>0.1760591829932991</v>
       </c>
       <c r="M20">
-        <v>0.4916343305038424</v>
+        <v>0.8908168038178985</v>
       </c>
       <c r="N20">
-        <v>2.226746238667346</v>
+        <v>1.300511867722662</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.989867999242847</v>
+        <v>6.994894994100321</v>
       </c>
       <c r="C21">
-        <v>0.4090994166933797</v>
+        <v>1.476154400717348</v>
       </c>
       <c r="D21">
-        <v>0.1097182156985355</v>
+        <v>0.0635790158457965</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.649045221924013</v>
+        <v>4.012492947954712</v>
       </c>
       <c r="G21">
-        <v>0.00250157977700042</v>
+        <v>0.0007480149886355776</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2205166799021825</v>
+        <v>0.1934995871756584</v>
       </c>
       <c r="M21">
-        <v>0.5177108007959959</v>
+        <v>1.013115590868857</v>
       </c>
       <c r="N21">
-        <v>2.217556950917924</v>
+        <v>1.291055964546501</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.116260761721492</v>
+        <v>7.579421821273343</v>
       </c>
       <c r="C22">
-        <v>0.4390207027225301</v>
+        <v>1.600572207843868</v>
       </c>
       <c r="D22">
-        <v>0.109560084719007</v>
+        <v>0.06458674341792658</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.706230208981879</v>
+        <v>4.314503266683573</v>
       </c>
       <c r="G22">
-        <v>0.002497233902031499</v>
+        <v>0.0007395343899743168</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2224103922807359</v>
+        <v>0.2053394049927562</v>
       </c>
       <c r="M22">
-        <v>0.5350083953751721</v>
+        <v>1.095654936862601</v>
       </c>
       <c r="N22">
-        <v>2.212178830116486</v>
+        <v>1.288624146558291</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.048669247051237</v>
+        <v>7.265603910136804</v>
       </c>
       <c r="C23">
-        <v>0.4230485978395109</v>
+        <v>1.533784617871333</v>
       </c>
       <c r="D23">
-        <v>0.1096409244295486</v>
+        <v>0.0640224129737561</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.675583033387397</v>
+        <v>4.151939711761202</v>
       </c>
       <c r="G23">
-        <v>0.002499538417779837</v>
+        <v>0.0007440612071533381</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2213917092226794</v>
+        <v>0.1989762484199886</v>
       </c>
       <c r="M23">
-        <v>0.5257528610446371</v>
+        <v>1.051337745968354</v>
       </c>
       <c r="N23">
-        <v>2.214991524128408</v>
+        <v>1.28955058012383</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.795587082890847</v>
+        <v>6.114406054758888</v>
       </c>
       <c r="C24">
-        <v>0.3626073556777669</v>
+        <v>1.288531384428552</v>
       </c>
       <c r="D24">
-        <v>0.1100249196773504</v>
+        <v>0.06242655677929321</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.562273360431163</v>
+        <v>3.564223291897292</v>
       </c>
       <c r="G24">
-        <v>0.002508595985366978</v>
+        <v>0.0007612240247729662</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2177085777268672</v>
+        <v>0.1757808207575877</v>
       </c>
       <c r="M24">
-        <v>0.4912124000998688</v>
+        <v>0.8888566064377343</v>
       </c>
       <c r="N24">
-        <v>2.226906965195454</v>
+        <v>1.300723743723111</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.528695678322151</v>
+        <v>4.934423061355119</v>
       </c>
       <c r="C25">
-        <v>0.2974852850019829</v>
+        <v>1.036330573971611</v>
       </c>
       <c r="D25">
-        <v>0.1106033064550616</v>
+        <v>0.06163690499757024</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.44584491211242</v>
+        <v>2.977415521126346</v>
       </c>
       <c r="G25">
-        <v>0.002519076128250396</v>
+        <v>0.0007799483039866978</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2141083523458533</v>
+        <v>0.1523333321257851</v>
       </c>
       <c r="M25">
-        <v>0.4550362725868595</v>
+        <v>0.7225396639514301</v>
       </c>
       <c r="N25">
-        <v>2.242425966404539</v>
+        <v>1.326358964092165</v>
       </c>
       <c r="O25">
         <v>0</v>
